--- a/natmiOut/OldD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H2">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I2">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J2">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.6506838394129</v>
+        <v>34.10446833333334</v>
       </c>
       <c r="N2">
-        <v>13.6506838394129</v>
+        <v>102.313405</v>
       </c>
       <c r="O2">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015388</v>
       </c>
       <c r="P2">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015389</v>
       </c>
       <c r="Q2">
-        <v>134.041762118942</v>
+        <v>854.9243436991727</v>
       </c>
       <c r="R2">
-        <v>134.041762118942</v>
+        <v>7694.319093292554</v>
       </c>
       <c r="S2">
-        <v>0.1558247430240181</v>
+        <v>0.3741349202648154</v>
       </c>
       <c r="T2">
-        <v>0.1558247430240181</v>
+        <v>0.3741349202648155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H3">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I3">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J3">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30.8762685878673</v>
+        <v>31.083557</v>
       </c>
       <c r="N3">
-        <v>30.8762685878673</v>
+        <v>93.25067100000001</v>
       </c>
       <c r="O3">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925921</v>
       </c>
       <c r="P3">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925922</v>
       </c>
       <c r="Q3">
-        <v>303.1869683499659</v>
+        <v>779.1967113613556</v>
       </c>
       <c r="R3">
-        <v>303.1869683499659</v>
+        <v>7012.770402252201</v>
       </c>
       <c r="S3">
-        <v>0.3524575526651353</v>
+        <v>0.3409947343578834</v>
       </c>
       <c r="T3">
-        <v>0.3524575526651353</v>
+        <v>0.3409947343578835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.81941737833897</v>
+        <v>25.06781033333333</v>
       </c>
       <c r="H4">
-        <v>9.81941737833897</v>
+        <v>75.20343099999999</v>
       </c>
       <c r="I4">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="J4">
-        <v>0.5238165452863529</v>
+        <v>0.7308832858982242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36084376472363</v>
+        <v>1.436030666666667</v>
       </c>
       <c r="N4">
-        <v>1.36084376472363</v>
+        <v>4.308092</v>
       </c>
       <c r="O4">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="P4">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="Q4">
-        <v>13.36269291253144</v>
+        <v>35.99814438485022</v>
       </c>
       <c r="R4">
-        <v>13.36269291253144</v>
+        <v>323.983299463652</v>
       </c>
       <c r="S4">
-        <v>0.01553424959719946</v>
+        <v>0.01575363127552533</v>
       </c>
       <c r="T4">
-        <v>0.01553424959719946</v>
+        <v>0.01575363127552533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H5">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I5">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J5">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6506838394129</v>
+        <v>34.10446833333334</v>
       </c>
       <c r="N5">
-        <v>13.6506838394129</v>
+        <v>102.313405</v>
       </c>
       <c r="O5">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015388</v>
       </c>
       <c r="P5">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015389</v>
       </c>
       <c r="Q5">
-        <v>11.20108516680776</v>
+        <v>30.45704091770778</v>
       </c>
       <c r="R5">
-        <v>11.20108516680776</v>
+        <v>274.11336825937</v>
       </c>
       <c r="S5">
-        <v>0.01302136132886087</v>
+        <v>0.01332871459238557</v>
       </c>
       <c r="T5">
-        <v>0.01302136132886087</v>
+        <v>0.01332871459238557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H6">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I6">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J6">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.8762685878673</v>
+        <v>31.083557</v>
       </c>
       <c r="N6">
-        <v>30.8762685878673</v>
+        <v>93.25067100000001</v>
       </c>
       <c r="O6">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925921</v>
       </c>
       <c r="P6">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925922</v>
       </c>
       <c r="Q6">
-        <v>25.33555960671983</v>
+        <v>27.75921202359266</v>
       </c>
       <c r="R6">
-        <v>25.33555960671983</v>
+        <v>249.832908212334</v>
       </c>
       <c r="S6">
-        <v>0.02945281382964539</v>
+        <v>0.0121480814689673</v>
       </c>
       <c r="T6">
-        <v>0.02945281382964539</v>
+        <v>0.0121480814689673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.820551211835077</v>
+        <v>0.8930513333333332</v>
       </c>
       <c r="H7">
-        <v>0.820551211835077</v>
+        <v>2.679154</v>
       </c>
       <c r="I7">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="J7">
-        <v>0.04377228143516265</v>
+        <v>0.02603802583086097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.36084376472363</v>
+        <v>1.436030666666667</v>
       </c>
       <c r="N7">
-        <v>1.36084376472363</v>
+        <v>4.308092</v>
       </c>
       <c r="O7">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="P7">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="Q7">
-        <v>1.116642000262183</v>
+        <v>1.282449101574222</v>
       </c>
       <c r="R7">
-        <v>1.116642000262183</v>
+        <v>11.542041914168</v>
       </c>
       <c r="S7">
-        <v>0.001298106276656382</v>
+        <v>0.0005612297695081063</v>
       </c>
       <c r="T7">
-        <v>0.001298106276656382</v>
+        <v>0.0005612297695081063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H8">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I8">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J8">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6506838394129</v>
+        <v>34.10446833333334</v>
       </c>
       <c r="N8">
-        <v>13.6506838394129</v>
+        <v>102.313405</v>
       </c>
       <c r="O8">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015388</v>
       </c>
       <c r="P8">
-        <v>0.2974796127121833</v>
+        <v>0.5118942073015389</v>
       </c>
       <c r="Q8">
-        <v>110.6516320412938</v>
+        <v>284.3325220960189</v>
       </c>
       <c r="R8">
-        <v>110.6516320412938</v>
+        <v>2558.99269886417</v>
       </c>
       <c r="S8">
-        <v>0.1286335083593044</v>
+        <v>0.1244305724443378</v>
       </c>
       <c r="T8">
-        <v>0.1286335083593044</v>
+        <v>0.1244305724443379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H9">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I9">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J9">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.8762685878673</v>
+        <v>31.083557</v>
       </c>
       <c r="N9">
-        <v>30.8762685878673</v>
+        <v>93.25067100000001</v>
       </c>
       <c r="O9">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925921</v>
       </c>
       <c r="P9">
-        <v>0.6728644901288077</v>
+        <v>0.4665515560925922</v>
       </c>
       <c r="Q9">
-        <v>250.2811984208837</v>
+        <v>259.1468681212993</v>
       </c>
       <c r="R9">
-        <v>250.2811984208837</v>
+        <v>2332.321813091694</v>
       </c>
       <c r="S9">
-        <v>0.290954123634027</v>
+        <v>0.1134087402657415</v>
       </c>
       <c r="T9">
-        <v>0.290954123634027</v>
+        <v>0.1134087402657415</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.10594057726362</v>
+        <v>8.337104666666667</v>
       </c>
       <c r="H10">
-        <v>8.10594057726362</v>
+        <v>25.011314</v>
       </c>
       <c r="I10">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="J10">
-        <v>0.4324111732784846</v>
+        <v>0.2430786882709149</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.36084376472363</v>
+        <v>1.436030666666667</v>
       </c>
       <c r="N10">
-        <v>1.36084376472363</v>
+        <v>4.308092</v>
       </c>
       <c r="O10">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="P10">
-        <v>0.02965589715900899</v>
+        <v>0.02155423660586901</v>
       </c>
       <c r="Q10">
-        <v>11.03091869178946</v>
+        <v>11.97233797254311</v>
       </c>
       <c r="R10">
-        <v>11.03091869178946</v>
+        <v>107.751041752888</v>
       </c>
       <c r="S10">
-        <v>0.01282354128515315</v>
+        <v>0.005239375560835575</v>
       </c>
       <c r="T10">
-        <v>0.01282354128515315</v>
+        <v>0.005239375560835575</v>
       </c>
     </row>
   </sheetData>
